--- a/Tablets Distribution - Mohale's Hoek.xlsx
+++ b/Tablets Distribution - Mohale's Hoek.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="All Tablets" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="10">
   <si>
     <t>No.</t>
   </si>
@@ -51,12 +51,15 @@
   <si>
     <t>ABIA SEBALO</t>
   </si>
+  <si>
+    <t>Signature</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +74,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -108,12 +116,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,7 +433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -543,96 +554,4121 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="A1:F1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" customWidth="1"/>
+    <col min="5" max="5" width="39.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" ht="18.75">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="2"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="2"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="2"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="2"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="2"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="2"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="2"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="2"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="2"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="2"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="2"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="2"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="2"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="2"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="2"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="2"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="2"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="2"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="2"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="2"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="2"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="2"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="2"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="2"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="2"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" customWidth="1"/>
+    <col min="5" max="5" width="39.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" ht="18.75">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="2"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="2"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="2"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="2"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="2"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="2"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="2"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="2"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="2"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="2"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="2"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="2"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="2"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="2"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="2"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="2"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="2"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="2"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="2"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="2"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="2"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="2"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="2"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="2"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="2"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" customWidth="1"/>
+    <col min="5" max="5" width="39.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" ht="18.75">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="2"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="2"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="2"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="2"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="2"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="2"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="2"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="2"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="2"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="2"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="2"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="2"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="2"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="2"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="2"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="2"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="2"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="2"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="2"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="2"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="2"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="2"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="2"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="2"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="2"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" customWidth="1"/>
+    <col min="5" max="5" width="39.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" ht="18.75">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="2"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="2"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="2"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="2"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="2"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="2"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="2"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="2"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="2"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="2"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="2"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="2"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="2"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="2"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="2"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="2"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="2"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="2"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="2"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="2"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="2"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="2"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="2"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="2"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="2"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" customWidth="1"/>
+    <col min="5" max="5" width="39.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" ht="18.75">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="2"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="2"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="2"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="2"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="2"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="2"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="2"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="2"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="2"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="2"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="2"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="2"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="2"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="2"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="2"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="2"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="2"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="2"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="2"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="2"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="2"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="2"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="2"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="2"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="2"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" customWidth="1"/>
+    <col min="5" max="5" width="39.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" ht="18.75">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="2"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="2"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="2"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="2"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="2"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="2"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="2"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="2"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="2"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="2"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="2"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="2"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="2"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="2"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="2"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="2"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="2"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="2"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="2"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="2"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="2"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="2"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="2"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="2"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="2"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" customWidth="1"/>
+    <col min="5" max="5" width="39.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" ht="18.75">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="2"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="2"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="2"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="2"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="2"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="2"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="2"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="2"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="2"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="2"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="2"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="2"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="2"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="2"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="2"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="2"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="2"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="2"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="2"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="2"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="2"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="2"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="2"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="2"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="2"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" customWidth="1"/>
+    <col min="5" max="5" width="39.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" ht="18.75">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="2"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="2"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="2"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="2"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="2"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="2"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="2"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="2"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="2"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="2"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="2"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="2"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="2"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="2"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="2"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="2"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="2"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="2"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="2"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="2"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="2"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="2"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="2"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="2"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="2"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Tablets Distribution - Mohale's Hoek.xlsx
+++ b/Tablets Distribution - Mohale's Hoek.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="All Tablets" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="350">
   <si>
     <t>No.</t>
   </si>
@@ -1029,13 +1029,67 @@
   </si>
   <si>
     <t>Lenovo Tab 2 A7-30</t>
+  </si>
+  <si>
+    <t>Lenovo Tab 8 (UNFPA)</t>
+  </si>
+  <si>
+    <t>Date Taken</t>
+  </si>
+  <si>
+    <t>HGEE</t>
+  </si>
+  <si>
+    <t>2JJ7</t>
+  </si>
+  <si>
+    <t>2JCB</t>
+  </si>
+  <si>
+    <t>2JFG</t>
+  </si>
+  <si>
+    <t>2JHY</t>
+  </si>
+  <si>
+    <t>2JH9</t>
+  </si>
+  <si>
+    <t>2JJU</t>
+  </si>
+  <si>
+    <t>2JFU</t>
+  </si>
+  <si>
+    <t>2JGJ</t>
+  </si>
+  <si>
+    <t>2JFE</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Lenovo Tab A8 (UNFPA)</t>
+  </si>
+  <si>
+    <t>Mohale's Hoek</t>
+  </si>
+  <si>
+    <t>MOHALE'S HOEK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1055,6 +1109,14 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1103,7 +1165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1130,6 +1192,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1425,32 +1501,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="B4" s="2">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D4" s="18">
+        <v>42464</v>
+      </c>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D5:E5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="A10" sqref="A9:D10"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="52.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="43" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75">
@@ -1490,7 +1625,9 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1498,7 +1635,9 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1506,7 +1645,9 @@
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1514,7 +1655,9 @@
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1522,7 +1665,9 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1530,7 +1675,9 @@
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1538,7 +1685,9 @@
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1546,18 +1695,319 @@
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
+    <row r="35" spans="1:8" ht="18.75">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="2">
+        <v>1</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C36" s="2" t="str">
+        <f>CONCATENATE(G36,H36)</f>
+        <v>HGEE2JJ7</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" t="s">
+        <v>334</v>
+      </c>
+      <c r="H36" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="2">
+        <v>2</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C37" s="2" t="str">
+        <f t="shared" ref="C37:C44" si="0">CONCATENATE(G37,H37)</f>
+        <v>HGEE2JCB</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" t="s">
+        <v>334</v>
+      </c>
+      <c r="H37" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="2">
+        <v>3</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>HGEE2JFG</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" t="s">
+        <v>334</v>
+      </c>
+      <c r="H38" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="2">
+        <v>4</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>HGEE2JHY</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" t="s">
+        <v>334</v>
+      </c>
+      <c r="H39" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="2">
+        <v>5</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>HGEE2JH9</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" t="s">
+        <v>334</v>
+      </c>
+      <c r="H40" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="2">
+        <v>6</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>HGEE2JJU</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" t="s">
+        <v>334</v>
+      </c>
+      <c r="H41" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="2">
+        <v>7</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C42" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>HGEE2JFU</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" t="s">
+        <v>334</v>
+      </c>
+      <c r="H42" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="2">
+        <v>8</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C43" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>HGEE2JGJ</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" t="s">
+        <v>334</v>
+      </c>
+      <c r="H43" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="2">
+        <v>9</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C44" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>HGEE2JFE</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" t="s">
+        <v>334</v>
+      </c>
+      <c r="H44" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="2">
+        <v>10</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C45" s="2" t="str">
+        <f t="shared" ref="C45:C50" si="1">CONCATENATE(G45,H45)</f>
+        <v/>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="2">
+        <v>11</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C46" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="2">
+        <v>12</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C47" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="2">
+        <v>13</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C48" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="2">
+        <v>14</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C49" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="2">
+        <v>15</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C50" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.34375" right="0.45833333333333331" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;A</oddHeader>
+    <oddHeader xml:space="preserve">&amp;L&amp;A - Mohale's Hoek
+</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -1609,7 +2059,7 @@
         <v>328</v>
       </c>
       <c r="C2" s="2" t="str">
-        <f>CONCATENATE(G2,H2)</f>
+        <f t="shared" ref="C2:C34" si="0">CONCATENATE(G2,H2)</f>
         <v>11V1DP101645</v>
       </c>
       <c r="D2" s="2"/>
@@ -1630,7 +2080,7 @@
         <v>328</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f>CONCATENATE(G3,H3)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101646</v>
       </c>
       <c r="D3" s="2"/>
@@ -1651,7 +2101,7 @@
         <v>328</v>
       </c>
       <c r="C4" s="2" t="str">
-        <f>CONCATENATE(G4,H4)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101647</v>
       </c>
       <c r="D4" s="2"/>
@@ -1672,7 +2122,7 @@
         <v>328</v>
       </c>
       <c r="C5" s="2" t="str">
-        <f>CONCATENATE(G5,H5)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101648</v>
       </c>
       <c r="D5" s="2"/>
@@ -1693,7 +2143,7 @@
         <v>328</v>
       </c>
       <c r="C6" s="2" t="str">
-        <f>CONCATENATE(G6,H6)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101649</v>
       </c>
       <c r="D6" s="2"/>
@@ -1714,7 +2164,7 @@
         <v>328</v>
       </c>
       <c r="C7" s="2" t="str">
-        <f>CONCATENATE(G7,H7)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101650</v>
       </c>
       <c r="D7" s="2"/>
@@ -1735,7 +2185,7 @@
         <v>328</v>
       </c>
       <c r="C8" s="2" t="str">
-        <f>CONCATENATE(G8,H8)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101651</v>
       </c>
       <c r="D8" s="2"/>
@@ -1756,7 +2206,7 @@
         <v>328</v>
       </c>
       <c r="C9" s="2" t="str">
-        <f>CONCATENATE(G9,H9)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101652</v>
       </c>
       <c r="D9" s="2"/>
@@ -1777,7 +2227,7 @@
         <v>328</v>
       </c>
       <c r="C10" s="2" t="str">
-        <f>CONCATENATE(G10,H10)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101653</v>
       </c>
       <c r="D10" s="2"/>
@@ -1798,7 +2248,7 @@
         <v>328</v>
       </c>
       <c r="C11" s="2" t="str">
-        <f>CONCATENATE(G11,H11)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101654</v>
       </c>
       <c r="D11" s="2"/>
@@ -1819,7 +2269,7 @@
         <v>328</v>
       </c>
       <c r="C12" s="2" t="str">
-        <f>CONCATENATE(G12,H12)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101655</v>
       </c>
       <c r="D12" s="2"/>
@@ -1840,7 +2290,7 @@
         <v>328</v>
       </c>
       <c r="C13" s="2" t="str">
-        <f>CONCATENATE(G13,H13)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101656</v>
       </c>
       <c r="D13" s="2"/>
@@ -1861,7 +2311,7 @@
         <v>328</v>
       </c>
       <c r="C14" s="2" t="str">
-        <f>CONCATENATE(G14,H14)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101657</v>
       </c>
       <c r="D14" s="2"/>
@@ -1882,7 +2332,7 @@
         <v>328</v>
       </c>
       <c r="C15" s="2" t="str">
-        <f>CONCATENATE(G15,H15)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101658</v>
       </c>
       <c r="D15" s="2"/>
@@ -1903,7 +2353,7 @@
         <v>328</v>
       </c>
       <c r="C16" s="2" t="str">
-        <f>CONCATENATE(G16,H16)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101659</v>
       </c>
       <c r="D16" s="2"/>
@@ -1924,7 +2374,7 @@
         <v>328</v>
       </c>
       <c r="C17" s="2" t="str">
-        <f>CONCATENATE(G17,H17)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101660</v>
       </c>
       <c r="D17" s="2"/>
@@ -1945,7 +2395,7 @@
         <v>328</v>
       </c>
       <c r="C18" s="2" t="str">
-        <f>CONCATENATE(G18,H18)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101661</v>
       </c>
       <c r="D18" s="2"/>
@@ -1966,7 +2416,7 @@
         <v>328</v>
       </c>
       <c r="C19" s="2" t="str">
-        <f>CONCATENATE(G19,H19)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101661</v>
       </c>
       <c r="D19" s="2"/>
@@ -1987,7 +2437,7 @@
         <v>328</v>
       </c>
       <c r="C20" s="2" t="str">
-        <f>CONCATENATE(G20,H20)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101662</v>
       </c>
       <c r="D20" s="2"/>
@@ -2008,7 +2458,7 @@
         <v>328</v>
       </c>
       <c r="C21" s="2" t="str">
-        <f>CONCATENATE(G21,H21)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101663</v>
       </c>
       <c r="D21" s="2"/>
@@ -2029,7 +2479,7 @@
         <v>328</v>
       </c>
       <c r="C22" s="2" t="str">
-        <f>CONCATENATE(G22,H22)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101664</v>
       </c>
       <c r="D22" s="2"/>
@@ -2050,7 +2500,7 @@
         <v>328</v>
       </c>
       <c r="C23" s="2" t="str">
-        <f>CONCATENATE(G23,H23)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101667</v>
       </c>
       <c r="D23" s="2"/>
@@ -2071,7 +2521,7 @@
         <v>328</v>
       </c>
       <c r="C24" s="2" t="str">
-        <f>CONCATENATE(G24,H24)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101671</v>
       </c>
       <c r="D24" s="2"/>
@@ -2092,7 +2542,7 @@
         <v>328</v>
       </c>
       <c r="C25" s="2" t="str">
-        <f>CONCATENATE(G25,H25)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102082</v>
       </c>
       <c r="D25" s="2"/>
@@ -2113,7 +2563,7 @@
         <v>328</v>
       </c>
       <c r="C26" s="2" t="str">
-        <f>CONCATENATE(G26,H26)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102086</v>
       </c>
       <c r="D26" s="1"/>
@@ -2134,7 +2584,7 @@
         <v>328</v>
       </c>
       <c r="C27" s="2" t="str">
-        <f>CONCATENATE(G27,H27)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102093</v>
       </c>
       <c r="D27" s="2"/>
@@ -2155,7 +2605,7 @@
         <v>328</v>
       </c>
       <c r="C28" s="2" t="str">
-        <f>CONCATENATE(G28,H28)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102100</v>
       </c>
       <c r="D28" s="2"/>
@@ -2176,7 +2626,7 @@
         <v>328</v>
       </c>
       <c r="C29" s="2" t="str">
-        <f>CONCATENATE(G29,H29)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102527</v>
       </c>
       <c r="D29" s="2"/>
@@ -2197,7 +2647,7 @@
         <v>328</v>
       </c>
       <c r="C30" s="2" t="str">
-        <f>CONCATENATE(G30,H30)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102767</v>
       </c>
       <c r="D30" s="2"/>
@@ -2218,7 +2668,7 @@
         <v>328</v>
       </c>
       <c r="C31" s="2" t="str">
-        <f>CONCATENATE(G31,H31)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102769</v>
       </c>
       <c r="D31" s="2"/>
@@ -2239,7 +2689,7 @@
         <v>328</v>
       </c>
       <c r="C32" s="2" t="str">
-        <f>CONCATENATE(G32,H32)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102770</v>
       </c>
       <c r="D32" s="2"/>
@@ -2260,7 +2710,7 @@
         <v>328</v>
       </c>
       <c r="C33" s="2" t="str">
-        <f>CONCATENATE(G33,H33)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102773</v>
       </c>
       <c r="D33" s="2"/>
@@ -2281,7 +2731,7 @@
         <v>328</v>
       </c>
       <c r="C34" s="2" t="str">
-        <f>CONCATENATE(G34,H34)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102776</v>
       </c>
       <c r="D34" s="2"/>
@@ -2322,7 +2772,7 @@
         <v>328</v>
       </c>
       <c r="C36" s="2" t="str">
-        <f>CONCATENATE(G36,H36)</f>
+        <f t="shared" ref="C36:C44" si="1">CONCATENATE(G36,H36)</f>
         <v>11V1DP102777</v>
       </c>
       <c r="D36" s="2"/>
@@ -2343,7 +2793,7 @@
         <v>328</v>
       </c>
       <c r="C37" s="2" t="str">
-        <f>CONCATENATE(G37,H37)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP102778</v>
       </c>
       <c r="D37" s="2"/>
@@ -2364,7 +2814,7 @@
         <v>328</v>
       </c>
       <c r="C38" s="2" t="str">
-        <f>CONCATENATE(G38,H38)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP103261</v>
       </c>
       <c r="D38" s="2"/>
@@ -2385,7 +2835,7 @@
         <v>328</v>
       </c>
       <c r="C39" s="2" t="str">
-        <f>CONCATENATE(G39,H39)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP103263</v>
       </c>
       <c r="D39" s="2"/>
@@ -2406,7 +2856,7 @@
         <v>328</v>
       </c>
       <c r="C40" s="2" t="str">
-        <f>CONCATENATE(G40,H40)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP103271</v>
       </c>
       <c r="D40" s="2"/>
@@ -2427,7 +2877,7 @@
         <v>328</v>
       </c>
       <c r="C41" s="2" t="str">
-        <f>CONCATENATE(G41,H41)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP103272</v>
       </c>
       <c r="D41" s="2"/>
@@ -2448,7 +2898,7 @@
         <v>328</v>
       </c>
       <c r="C42" s="2" t="str">
-        <f>CONCATENATE(G42,H42)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP103275</v>
       </c>
       <c r="D42" s="2"/>
@@ -2469,7 +2919,7 @@
         <v>328</v>
       </c>
       <c r="C43" s="2" t="str">
-        <f>CONCATENATE(G43,H43)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP103280</v>
       </c>
       <c r="D43" s="2"/>
@@ -2490,7 +2940,7 @@
         <v>328</v>
       </c>
       <c r="C44" s="2" t="str">
-        <f>CONCATENATE(G44,H44)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104114</v>
       </c>
       <c r="D44" s="2"/>
@@ -2560,7 +3010,7 @@
         <v>328</v>
       </c>
       <c r="C2" s="2" t="str">
-        <f>CONCATENATE(G2,H2)</f>
+        <f t="shared" ref="C2:C34" si="0">CONCATENATE(G2,H2)</f>
         <v>11V1BP100187</v>
       </c>
       <c r="D2" s="2"/>
@@ -2581,7 +3031,7 @@
         <v>328</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f>CONCATENATE(G3,H3)</f>
+        <f t="shared" si="0"/>
         <v>11V1BP100454</v>
       </c>
       <c r="D3" s="2"/>
@@ -2602,7 +3052,7 @@
         <v>328</v>
       </c>
       <c r="C4" s="2" t="str">
-        <f>CONCATENATE(G4,H4)</f>
+        <f t="shared" si="0"/>
         <v>11V1BP100460</v>
       </c>
       <c r="D4" s="2"/>
@@ -2623,7 +3073,7 @@
         <v>328</v>
       </c>
       <c r="C5" s="2" t="str">
-        <f>CONCATENATE(G5,H5)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP100442</v>
       </c>
       <c r="D5" s="2"/>
@@ -2644,7 +3094,7 @@
         <v>328</v>
       </c>
       <c r="C6" s="2" t="str">
-        <f>CONCATENATE(G6,H6)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP100450</v>
       </c>
       <c r="D6" s="2"/>
@@ -2665,7 +3115,7 @@
         <v>328</v>
       </c>
       <c r="C7" s="2" t="str">
-        <f>CONCATENATE(G7,H7)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101581</v>
       </c>
       <c r="D7" s="2"/>
@@ -2686,7 +3136,7 @@
         <v>328</v>
       </c>
       <c r="C8" s="2" t="str">
-        <f>CONCATENATE(G8,H8)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101585</v>
       </c>
       <c r="D8" s="2"/>
@@ -2707,7 +3157,7 @@
         <v>328</v>
       </c>
       <c r="C9" s="2" t="str">
-        <f>CONCATENATE(G9,H9)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101589</v>
       </c>
       <c r="D9" s="2"/>
@@ -2728,7 +3178,7 @@
         <v>328</v>
       </c>
       <c r="C10" s="2" t="str">
-        <f>CONCATENATE(G10,H10)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101590</v>
       </c>
       <c r="D10" s="2"/>
@@ -2749,7 +3199,7 @@
         <v>328</v>
       </c>
       <c r="C11" s="2" t="str">
-        <f>CONCATENATE(G11,H11)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101593</v>
       </c>
       <c r="D11" s="2"/>
@@ -2770,7 +3220,7 @@
         <v>328</v>
       </c>
       <c r="C12" s="2" t="str">
-        <f>CONCATENATE(G12,H12)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101595</v>
       </c>
       <c r="D12" s="2"/>
@@ -2791,7 +3241,7 @@
         <v>328</v>
       </c>
       <c r="C13" s="2" t="str">
-        <f>CONCATENATE(G13,H13)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101598</v>
       </c>
       <c r="D13" s="2"/>
@@ -2812,7 +3262,7 @@
         <v>328</v>
       </c>
       <c r="C14" s="2" t="str">
-        <f>CONCATENATE(G14,H14)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101665</v>
       </c>
       <c r="D14" s="2"/>
@@ -2833,7 +3283,7 @@
         <v>328</v>
       </c>
       <c r="C15" s="2" t="str">
-        <f>CONCATENATE(G15,H15)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101675</v>
       </c>
       <c r="D15" s="2"/>
@@ -2854,7 +3304,7 @@
         <v>328</v>
       </c>
       <c r="C16" s="2" t="str">
-        <f>CONCATENATE(G16,H16)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101868</v>
       </c>
       <c r="D16" s="2"/>
@@ -2875,7 +3325,7 @@
         <v>328</v>
       </c>
       <c r="C17" s="2" t="str">
-        <f>CONCATENATE(G17,H17)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101929</v>
       </c>
       <c r="D17" s="2"/>
@@ -2896,7 +3346,7 @@
         <v>328</v>
       </c>
       <c r="C18" s="2" t="str">
-        <f>CONCATENATE(G18,H18)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101937</v>
       </c>
       <c r="D18" s="2"/>
@@ -2917,7 +3367,7 @@
         <v>328</v>
       </c>
       <c r="C19" s="2" t="str">
-        <f>CONCATENATE(G19,H19)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101944</v>
       </c>
       <c r="D19" s="2"/>
@@ -2938,7 +3388,7 @@
         <v>328</v>
       </c>
       <c r="C20" s="2" t="str">
-        <f>CONCATENATE(G20,H20)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101951</v>
       </c>
       <c r="D20" s="2"/>
@@ -2959,7 +3409,7 @@
         <v>328</v>
       </c>
       <c r="C21" s="2" t="str">
-        <f>CONCATENATE(G21,H21)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101955</v>
       </c>
       <c r="D21" s="2"/>
@@ -2980,7 +3430,7 @@
         <v>328</v>
       </c>
       <c r="C22" s="2" t="str">
-        <f>CONCATENATE(G22,H22)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101960</v>
       </c>
       <c r="D22" s="2"/>
@@ -3001,7 +3451,7 @@
         <v>328</v>
       </c>
       <c r="C23" s="2" t="str">
-        <f>CONCATENATE(G23,H23)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102084</v>
       </c>
       <c r="D23" s="2"/>
@@ -3022,7 +3472,7 @@
         <v>328</v>
       </c>
       <c r="C24" s="2" t="str">
-        <f>CONCATENATE(G24,H24)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102089</v>
       </c>
       <c r="D24" s="2"/>
@@ -3043,7 +3493,7 @@
         <v>328</v>
       </c>
       <c r="C25" s="2" t="str">
-        <f>CONCATENATE(G25,H25)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102092</v>
       </c>
       <c r="D25" s="2"/>
@@ -3064,7 +3514,7 @@
         <v>328</v>
       </c>
       <c r="C26" s="2" t="str">
-        <f>CONCATENATE(G26,H26)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102252</v>
       </c>
       <c r="D26" s="2"/>
@@ -3085,7 +3535,7 @@
         <v>328</v>
       </c>
       <c r="C27" s="2" t="str">
-        <f>CONCATENATE(G27,H27)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102254</v>
       </c>
       <c r="D27" s="2"/>
@@ -3106,7 +3556,7 @@
         <v>328</v>
       </c>
       <c r="C28" s="2" t="str">
-        <f>CONCATENATE(G28,H28)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102255</v>
       </c>
       <c r="D28" s="2"/>
@@ -3127,7 +3577,7 @@
         <v>328</v>
       </c>
       <c r="C29" s="2" t="str">
-        <f>CONCATENATE(G29,H29)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102257</v>
       </c>
       <c r="D29" s="2"/>
@@ -3148,7 +3598,7 @@
         <v>328</v>
       </c>
       <c r="C30" s="2" t="str">
-        <f>CONCATENATE(G30,H30)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102772</v>
       </c>
       <c r="D30" s="2"/>
@@ -3169,7 +3619,7 @@
         <v>328</v>
       </c>
       <c r="C31" s="2" t="str">
-        <f>CONCATENATE(G31,H31)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102779</v>
       </c>
       <c r="D31" s="2"/>
@@ -3190,7 +3640,7 @@
         <v>328</v>
       </c>
       <c r="C32" s="2" t="str">
-        <f>CONCATENATE(G32,H32)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP103011</v>
       </c>
       <c r="D32" s="1"/>
@@ -3211,7 +3661,7 @@
         <v>328</v>
       </c>
       <c r="C33" s="2" t="str">
-        <f>CONCATENATE(G33,H33)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP103264</v>
       </c>
       <c r="D33" s="2"/>
@@ -3232,7 +3682,7 @@
         <v>328</v>
       </c>
       <c r="C34" s="2" t="str">
-        <f>CONCATENATE(G34,H34)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP103266</v>
       </c>
       <c r="D34" s="2"/>
@@ -3273,7 +3723,7 @@
         <v>328</v>
       </c>
       <c r="C36" s="2" t="str">
-        <f>CONCATENATE(G36,H36)</f>
+        <f t="shared" ref="C36:C69" si="1">CONCATENATE(G36,H36)</f>
         <v>11V1DP103268</v>
       </c>
       <c r="D36" s="2"/>
@@ -3294,7 +3744,7 @@
         <v>328</v>
       </c>
       <c r="C37" s="2" t="str">
-        <f>CONCATENATE(G37,H37)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP103269</v>
       </c>
       <c r="D37" s="2"/>
@@ -3315,7 +3765,7 @@
         <v>328</v>
       </c>
       <c r="C38" s="2" t="str">
-        <f>CONCATENATE(G38,H38)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP103270</v>
       </c>
       <c r="D38" s="2"/>
@@ -3336,7 +3786,7 @@
         <v>328</v>
       </c>
       <c r="C39" s="2" t="str">
-        <f>CONCATENATE(G39,H39)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP103277</v>
       </c>
       <c r="D39" s="2"/>
@@ -3357,7 +3807,7 @@
         <v>328</v>
       </c>
       <c r="C40" s="2" t="str">
-        <f>CONCATENATE(G40,H40)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP103278</v>
       </c>
       <c r="D40" s="2"/>
@@ -3378,7 +3828,7 @@
         <v>328</v>
       </c>
       <c r="C41" s="2" t="str">
-        <f>CONCATENATE(G41,H41)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP103515</v>
       </c>
       <c r="D41" s="2"/>
@@ -3399,7 +3849,7 @@
         <v>328</v>
       </c>
       <c r="C42" s="2" t="str">
-        <f>CONCATENATE(G42,H42)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP103541</v>
       </c>
       <c r="D42" s="2"/>
@@ -3420,7 +3870,7 @@
         <v>328</v>
       </c>
       <c r="C43" s="2" t="str">
-        <f>CONCATENATE(G43,H43)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP103543</v>
       </c>
       <c r="D43" s="2"/>
@@ -3441,7 +3891,7 @@
         <v>328</v>
       </c>
       <c r="C44" s="2" t="str">
-        <f>CONCATENATE(G44,H44)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP103544</v>
       </c>
       <c r="D44" s="2"/>
@@ -3462,7 +3912,7 @@
         <v>328</v>
       </c>
       <c r="C45" s="2" t="str">
-        <f>CONCATENATE(G45,H45)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP103550</v>
       </c>
       <c r="D45" s="2"/>
@@ -3483,7 +3933,7 @@
         <v>328</v>
       </c>
       <c r="C46" s="2" t="str">
-        <f>CONCATENATE(G46,H46)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP103555</v>
       </c>
       <c r="D46" s="2"/>
@@ -3504,7 +3954,7 @@
         <v>328</v>
       </c>
       <c r="C47" s="2" t="str">
-        <f>CONCATENATE(G47,H47)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP103556</v>
       </c>
       <c r="D47" s="2"/>
@@ -3525,7 +3975,7 @@
         <v>328</v>
       </c>
       <c r="C48" s="2" t="str">
-        <f>CONCATENATE(G48,H48)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP103558</v>
       </c>
       <c r="D48" s="2"/>
@@ -3546,7 +3996,7 @@
         <v>328</v>
       </c>
       <c r="C49" s="2" t="str">
-        <f>CONCATENATE(G49,H49)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP103559</v>
       </c>
       <c r="D49" s="2"/>
@@ -3567,7 +4017,7 @@
         <v>328</v>
       </c>
       <c r="C50" s="2" t="str">
-        <f>CONCATENATE(G50,H50)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104001</v>
       </c>
       <c r="D50" s="2"/>
@@ -3588,7 +4038,7 @@
         <v>328</v>
       </c>
       <c r="C51" s="2" t="str">
-        <f>CONCATENATE(G51,H51)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104002</v>
       </c>
       <c r="D51" s="2"/>
@@ -3609,7 +4059,7 @@
         <v>328</v>
       </c>
       <c r="C52" s="2" t="str">
-        <f>CONCATENATE(G52,H52)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104003</v>
       </c>
       <c r="D52" s="2"/>
@@ -3630,7 +4080,7 @@
         <v>328</v>
       </c>
       <c r="C53" s="2" t="str">
-        <f>CONCATENATE(G53,H53)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104004</v>
       </c>
       <c r="D53" s="2"/>
@@ -3651,7 +4101,7 @@
         <v>328</v>
       </c>
       <c r="C54" s="2" t="str">
-        <f>CONCATENATE(G54,H54)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104006</v>
       </c>
       <c r="D54" s="2"/>
@@ -3672,7 +4122,7 @@
         <v>328</v>
       </c>
       <c r="C55" s="2" t="str">
-        <f>CONCATENATE(G55,H55)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104007</v>
       </c>
       <c r="D55" s="2"/>
@@ -3693,7 +4143,7 @@
         <v>328</v>
       </c>
       <c r="C56" s="2" t="str">
-        <f>CONCATENATE(G56,H56)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104009</v>
       </c>
       <c r="D56" s="2"/>
@@ -3714,7 +4164,7 @@
         <v>328</v>
       </c>
       <c r="C57" s="2" t="str">
-        <f>CONCATENATE(G57,H57)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104010</v>
       </c>
       <c r="D57" s="2"/>
@@ -3735,7 +4185,7 @@
         <v>328</v>
       </c>
       <c r="C58" s="2" t="str">
-        <f>CONCATENATE(G58,H58)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104011</v>
       </c>
       <c r="D58" s="2"/>
@@ -3756,7 +4206,7 @@
         <v>328</v>
       </c>
       <c r="C59" s="2" t="str">
-        <f>CONCATENATE(G59,H59)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104012</v>
       </c>
       <c r="D59" s="2"/>
@@ -3777,7 +4227,7 @@
         <v>328</v>
       </c>
       <c r="C60" s="2" t="str">
-        <f>CONCATENATE(G60,H60)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104014</v>
       </c>
       <c r="D60" s="2"/>
@@ -3798,7 +4248,7 @@
         <v>328</v>
       </c>
       <c r="C61" s="2" t="str">
-        <f>CONCATENATE(G61,H61)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104016</v>
       </c>
       <c r="D61" s="2"/>
@@ -3819,7 +4269,7 @@
         <v>328</v>
       </c>
       <c r="C62" s="2" t="str">
-        <f>CONCATENATE(G62,H62)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104017</v>
       </c>
       <c r="D62" s="2"/>
@@ -3840,7 +4290,7 @@
         <v>328</v>
       </c>
       <c r="C63" s="2" t="str">
-        <f>CONCATENATE(G63,H63)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104019</v>
       </c>
       <c r="D63" s="2"/>
@@ -3861,7 +4311,7 @@
         <v>328</v>
       </c>
       <c r="C64" s="2" t="str">
-        <f>CONCATENATE(G64,H64)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104020</v>
       </c>
       <c r="D64" s="2"/>
@@ -3882,7 +4332,7 @@
         <v>328</v>
       </c>
       <c r="C65" s="2" t="str">
-        <f>CONCATENATE(G65,H65)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104030</v>
       </c>
       <c r="D65" s="2"/>
@@ -3903,7 +4353,7 @@
         <v>328</v>
       </c>
       <c r="C66" s="2" t="str">
-        <f>CONCATENATE(G66,H66)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104039</v>
       </c>
       <c r="D66" s="2"/>
@@ -3924,7 +4374,7 @@
         <v>328</v>
       </c>
       <c r="C67" s="2" t="str">
-        <f>CONCATENATE(G67,H67)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104206</v>
       </c>
       <c r="D67" s="2"/>
@@ -3945,7 +4395,7 @@
         <v>328</v>
       </c>
       <c r="C68" s="2" t="str">
-        <f>CONCATENATE(G68,H68)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104458</v>
       </c>
       <c r="D68" s="2"/>
@@ -3966,7 +4416,7 @@
         <v>328</v>
       </c>
       <c r="C69" s="2" t="str">
-        <f>CONCATENATE(G69,H69)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP106253</v>
       </c>
       <c r="D69" s="2"/>
@@ -5400,7 +5850,7 @@
         <v>328</v>
       </c>
       <c r="C2" s="2" t="str">
-        <f>CONCATENATE(G2,H2)</f>
+        <f t="shared" ref="C2:C34" si="0">CONCATENATE(G2,H2)</f>
         <v>11V1DP101649</v>
       </c>
       <c r="D2" s="2"/>
@@ -5421,7 +5871,7 @@
         <v>328</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f>CONCATENATE(G3,H3)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101663</v>
       </c>
       <c r="D3" s="2"/>
@@ -5442,7 +5892,7 @@
         <v>328</v>
       </c>
       <c r="C4" s="2" t="str">
-        <f>CONCATENATE(G4,H4)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101664</v>
       </c>
       <c r="D4" s="2"/>
@@ -5463,7 +5913,7 @@
         <v>328</v>
       </c>
       <c r="C5" s="2" t="str">
-        <f>CONCATENATE(G5,H5)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101668</v>
       </c>
       <c r="D5" s="2"/>
@@ -5484,7 +5934,7 @@
         <v>328</v>
       </c>
       <c r="C6" s="2" t="str">
-        <f>CONCATENATE(G6,H6)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101670</v>
       </c>
       <c r="D6" s="2"/>
@@ -5505,7 +5955,7 @@
         <v>328</v>
       </c>
       <c r="C7" s="2" t="str">
-        <f>CONCATENATE(G7,H7)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101673</v>
       </c>
       <c r="D7" s="2"/>
@@ -5526,7 +5976,7 @@
         <v>328</v>
       </c>
       <c r="C8" s="2" t="str">
-        <f>CONCATENATE(G8,H8)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101676</v>
       </c>
       <c r="D8" s="2"/>
@@ -5547,7 +5997,7 @@
         <v>328</v>
       </c>
       <c r="C9" s="2" t="str">
-        <f>CONCATENATE(G9,H9)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101925</v>
       </c>
       <c r="D9" s="2"/>
@@ -5568,7 +6018,7 @@
         <v>328</v>
       </c>
       <c r="C10" s="2" t="str">
-        <f>CONCATENATE(G10,H10)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101926</v>
       </c>
       <c r="D10" s="2"/>
@@ -5589,7 +6039,7 @@
         <v>328</v>
       </c>
       <c r="C11" s="2" t="str">
-        <f>CONCATENATE(G11,H11)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101928</v>
       </c>
       <c r="D11" s="2"/>
@@ -5610,7 +6060,7 @@
         <v>328</v>
       </c>
       <c r="C12" s="2" t="str">
-        <f>CONCATENATE(G12,H12)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101933</v>
       </c>
       <c r="D12" s="2"/>
@@ -5631,7 +6081,7 @@
         <v>328</v>
       </c>
       <c r="C13" s="2" t="str">
-        <f>CONCATENATE(G13,H13)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101939</v>
       </c>
       <c r="D13" s="2"/>
@@ -5652,7 +6102,7 @@
         <v>328</v>
       </c>
       <c r="C14" s="2" t="str">
-        <f>CONCATENATE(G14,H14)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101956</v>
       </c>
       <c r="D14" s="2"/>
@@ -5673,7 +6123,7 @@
         <v>328</v>
       </c>
       <c r="C15" s="2" t="str">
-        <f>CONCATENATE(G15,H15)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101957</v>
       </c>
       <c r="D15" s="2"/>
@@ -5694,7 +6144,7 @@
         <v>328</v>
       </c>
       <c r="C16" s="2" t="str">
-        <f>CONCATENATE(G16,H16)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102081</v>
       </c>
       <c r="D16" s="2"/>
@@ -5715,7 +6165,7 @@
         <v>328</v>
       </c>
       <c r="C17" s="2" t="str">
-        <f>CONCATENATE(G17,H17)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102098</v>
       </c>
       <c r="D17" s="2"/>
@@ -5736,7 +6186,7 @@
         <v>328</v>
       </c>
       <c r="C18" s="2" t="str">
-        <f>CONCATENATE(G18,H18)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102241</v>
       </c>
       <c r="D18" s="2"/>
@@ -5757,7 +6207,7 @@
         <v>328</v>
       </c>
       <c r="C19" s="2" t="str">
-        <f>CONCATENATE(G19,H19)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102521</v>
       </c>
       <c r="D19" s="2"/>
@@ -5778,7 +6228,7 @@
         <v>328</v>
       </c>
       <c r="C20" s="2" t="str">
-        <f>CONCATENATE(G20,H20)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102524</v>
       </c>
       <c r="D20" s="2"/>
@@ -5799,7 +6249,7 @@
         <v>328</v>
       </c>
       <c r="C21" s="2" t="str">
-        <f>CONCATENATE(G21,H21)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102525</v>
       </c>
       <c r="D21" s="2"/>
@@ -5820,7 +6270,7 @@
         <v>328</v>
       </c>
       <c r="C22" s="2" t="str">
-        <f>CONCATENATE(G22,H22)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102526</v>
       </c>
       <c r="D22" s="2"/>
@@ -5841,7 +6291,7 @@
         <v>328</v>
       </c>
       <c r="C23" s="2" t="str">
-        <f>CONCATENATE(G23,H23)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102531</v>
       </c>
       <c r="D23" s="2"/>
@@ -5862,7 +6312,7 @@
         <v>328</v>
       </c>
       <c r="C24" s="2" t="str">
-        <f>CONCATENATE(G24,H24)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102532</v>
       </c>
       <c r="D24" s="2"/>
@@ -5883,7 +6333,7 @@
         <v>328</v>
       </c>
       <c r="C25" s="2" t="str">
-        <f>CONCATENATE(G25,H25)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102536</v>
       </c>
       <c r="D25" s="2"/>
@@ -5904,7 +6354,7 @@
         <v>328</v>
       </c>
       <c r="C26" s="2" t="str">
-        <f>CONCATENATE(G26,H26)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102538</v>
       </c>
       <c r="D26" s="2"/>
@@ -5925,7 +6375,7 @@
         <v>328</v>
       </c>
       <c r="C27" s="2" t="str">
-        <f>CONCATENATE(G27,H27)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102539</v>
       </c>
       <c r="D27" s="2"/>
@@ -5946,7 +6396,7 @@
         <v>328</v>
       </c>
       <c r="C28" s="2" t="str">
-        <f>CONCATENATE(G28,H28)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102540</v>
       </c>
       <c r="D28" s="2"/>
@@ -5967,7 +6417,7 @@
         <v>328</v>
       </c>
       <c r="C29" s="2" t="str">
-        <f>CONCATENATE(G29,H29)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102761</v>
       </c>
       <c r="D29" s="2"/>
@@ -5988,7 +6438,7 @@
         <v>328</v>
       </c>
       <c r="C30" s="2" t="str">
-        <f>CONCATENATE(G30,H30)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102766</v>
       </c>
       <c r="D30" s="2"/>
@@ -6009,7 +6459,7 @@
         <v>328</v>
       </c>
       <c r="C31" s="2" t="str">
-        <f>CONCATENATE(G31,H31)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102771</v>
       </c>
       <c r="D31" s="2"/>
@@ -6030,7 +6480,7 @@
         <v>328</v>
       </c>
       <c r="C32" s="2" t="str">
-        <f>CONCATENATE(G32,H32)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP103331</v>
       </c>
       <c r="D32" s="1"/>
@@ -6051,7 +6501,7 @@
         <v>328</v>
       </c>
       <c r="C33" s="2" t="str">
-        <f>CONCATENATE(G33,H33)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP103501</v>
       </c>
       <c r="D33" s="2"/>
@@ -6072,7 +6522,7 @@
         <v>328</v>
       </c>
       <c r="C34" s="2" t="str">
-        <f>CONCATENATE(G34,H34)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP103502</v>
       </c>
       <c r="D34" s="2"/>
@@ -6113,7 +6563,7 @@
         <v>328</v>
       </c>
       <c r="C36" s="2" t="str">
-        <f>CONCATENATE(G36,H36)</f>
+        <f t="shared" ref="C36:C49" si="1">CONCATENATE(G36,H36)</f>
         <v>11V1DP103503</v>
       </c>
       <c r="D36" s="2"/>
@@ -6134,7 +6584,7 @@
         <v>328</v>
       </c>
       <c r="C37" s="2" t="str">
-        <f>CONCATENATE(G37,H37)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP103504</v>
       </c>
       <c r="D37" s="2"/>
@@ -6155,7 +6605,7 @@
         <v>328</v>
       </c>
       <c r="C38" s="2" t="str">
-        <f>CONCATENATE(G38,H38)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP103506</v>
       </c>
       <c r="D38" s="2"/>
@@ -6176,7 +6626,7 @@
         <v>328</v>
       </c>
       <c r="C39" s="2" t="str">
-        <f>CONCATENATE(G39,H39)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP103508</v>
       </c>
       <c r="D39" s="2"/>
@@ -6197,7 +6647,7 @@
         <v>328</v>
       </c>
       <c r="C40" s="2" t="str">
-        <f>CONCATENATE(G40,H40)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP103510</v>
       </c>
       <c r="D40" s="2"/>
@@ -6218,7 +6668,7 @@
         <v>328</v>
       </c>
       <c r="C41" s="2" t="str">
-        <f>CONCATENATE(G41,H41)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP103512</v>
       </c>
       <c r="D41" s="2"/>
@@ -6239,7 +6689,7 @@
         <v>328</v>
       </c>
       <c r="C42" s="2" t="str">
-        <f>CONCATENATE(G42,H42)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP103516</v>
       </c>
       <c r="D42" s="2"/>
@@ -6260,7 +6710,7 @@
         <v>328</v>
       </c>
       <c r="C43" s="2" t="str">
-        <f>CONCATENATE(G43,H43)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP103517</v>
       </c>
       <c r="D43" s="2"/>
@@ -6281,7 +6731,7 @@
         <v>328</v>
       </c>
       <c r="C44" s="2" t="str">
-        <f>CONCATENATE(G44,H44)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP103519</v>
       </c>
       <c r="D44" s="2"/>
@@ -6302,7 +6752,7 @@
         <v>328</v>
       </c>
       <c r="C45" s="2" t="str">
-        <f>CONCATENATE(G45,H45)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104446</v>
       </c>
       <c r="D45" s="2"/>
@@ -6323,7 +6773,7 @@
         <v>328</v>
       </c>
       <c r="C46" s="2" t="str">
-        <f>CONCATENATE(G46,H46)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104454</v>
       </c>
       <c r="D46" s="2"/>
@@ -6344,7 +6794,7 @@
         <v>328</v>
       </c>
       <c r="C47" s="2" t="str">
-        <f>CONCATENATE(G47,H47)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104456</v>
       </c>
       <c r="D47" s="2"/>
@@ -6365,7 +6815,7 @@
         <v>328</v>
       </c>
       <c r="C48" s="2" t="str">
-        <f>CONCATENATE(G48,H48)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104457</v>
       </c>
       <c r="D48" s="2"/>
@@ -6386,7 +6836,7 @@
         <v>328</v>
       </c>
       <c r="C49" s="2" t="str">
-        <f>CONCATENATE(G49,H49)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104460</v>
       </c>
       <c r="D49" s="2"/>
@@ -6544,7 +6994,7 @@
         <v>328</v>
       </c>
       <c r="C2" s="2" t="str">
-        <f>CONCATENATE(G2,H2)</f>
+        <f t="shared" ref="C2:C34" si="0">CONCATENATE(G2,H2)</f>
         <v>11V1DP101793</v>
       </c>
       <c r="D2" s="2"/>
@@ -6565,7 +7015,7 @@
         <v>328</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f>CONCATENATE(G3,H3)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101794</v>
       </c>
       <c r="D3" s="2"/>
@@ -6586,7 +7036,7 @@
         <v>328</v>
       </c>
       <c r="C4" s="2" t="str">
-        <f>CONCATENATE(G4,H4)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101799</v>
       </c>
       <c r="D4" s="1"/>
@@ -6607,7 +7057,7 @@
         <v>328</v>
       </c>
       <c r="C5" s="2" t="str">
-        <f>CONCATENATE(G5,H5)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101883</v>
       </c>
       <c r="D5" s="2"/>
@@ -6628,7 +7078,7 @@
         <v>328</v>
       </c>
       <c r="C6" s="2" t="str">
-        <f>CONCATENATE(G6,H6)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101886</v>
       </c>
       <c r="D6" s="2"/>
@@ -6649,7 +7099,7 @@
         <v>328</v>
       </c>
       <c r="C7" s="2" t="str">
-        <f>CONCATENATE(G7,H7)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101893</v>
       </c>
       <c r="D7" s="2"/>
@@ -6670,7 +7120,7 @@
         <v>328</v>
       </c>
       <c r="C8" s="2" t="str">
-        <f>CONCATENATE(G8,H8)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101894</v>
       </c>
       <c r="D8" s="2"/>
@@ -6691,7 +7141,7 @@
         <v>328</v>
       </c>
       <c r="C9" s="2" t="str">
-        <f>CONCATENATE(G9,H9)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP101927</v>
       </c>
       <c r="D9" s="2"/>
@@ -6712,7 +7162,7 @@
         <v>328</v>
       </c>
       <c r="C10" s="2" t="str">
-        <f>CONCATENATE(G10,H10)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102068</v>
       </c>
       <c r="D10" s="2"/>
@@ -6733,7 +7183,7 @@
         <v>328</v>
       </c>
       <c r="C11" s="2" t="str">
-        <f>CONCATENATE(G11,H11)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102189</v>
       </c>
       <c r="D11" s="2"/>
@@ -6754,7 +7204,7 @@
         <v>328</v>
       </c>
       <c r="C12" s="2" t="str">
-        <f>CONCATENATE(G12,H12)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102345</v>
       </c>
       <c r="D12" s="2"/>
@@ -6775,7 +7225,7 @@
         <v>328</v>
       </c>
       <c r="C13" s="2" t="str">
-        <f>CONCATENATE(G13,H13)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102347</v>
       </c>
       <c r="D13" s="2"/>
@@ -6796,7 +7246,7 @@
         <v>328</v>
       </c>
       <c r="C14" s="2" t="str">
-        <f>CONCATENATE(G14,H14)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102675</v>
       </c>
       <c r="D14" s="2"/>
@@ -6817,7 +7267,7 @@
         <v>328</v>
       </c>
       <c r="C15" s="2" t="str">
-        <f>CONCATENATE(G15,H15)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102678</v>
       </c>
       <c r="D15" s="2"/>
@@ -6838,7 +7288,7 @@
         <v>328</v>
       </c>
       <c r="C16" s="2" t="str">
-        <f>CONCATENATE(G16,H16)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102681</v>
       </c>
       <c r="D16" s="2"/>
@@ -6859,7 +7309,7 @@
         <v>328</v>
       </c>
       <c r="C17" s="2" t="str">
-        <f>CONCATENATE(G17,H17)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102682</v>
       </c>
       <c r="D17" s="2"/>
@@ -6880,7 +7330,7 @@
         <v>328</v>
       </c>
       <c r="C18" s="2" t="str">
-        <f>CONCATENATE(G18,H18)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102685</v>
       </c>
       <c r="D18" s="2"/>
@@ -6901,7 +7351,7 @@
         <v>328</v>
       </c>
       <c r="C19" s="2" t="str">
-        <f>CONCATENATE(G19,H19)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102687</v>
       </c>
       <c r="D19" s="2"/>
@@ -6922,7 +7372,7 @@
         <v>328</v>
       </c>
       <c r="C20" s="2" t="str">
-        <f>CONCATENATE(G20,H20)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102691</v>
       </c>
       <c r="D20" s="2"/>
@@ -6943,7 +7393,7 @@
         <v>328</v>
       </c>
       <c r="C21" s="2" t="str">
-        <f>CONCATENATE(G21,H21)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP102695</v>
       </c>
       <c r="D21" s="2"/>
@@ -6964,7 +7414,7 @@
         <v>328</v>
       </c>
       <c r="C22" s="2" t="str">
-        <f>CONCATENATE(G22,H22)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP103444</v>
       </c>
       <c r="D22" s="2"/>
@@ -6985,7 +7435,7 @@
         <v>328</v>
       </c>
       <c r="C23" s="2" t="str">
-        <f>CONCATENATE(G23,H23)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP103449</v>
       </c>
       <c r="D23" s="2"/>
@@ -7006,7 +7456,7 @@
         <v>328</v>
       </c>
       <c r="C24" s="2" t="str">
-        <f>CONCATENATE(G24,H24)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP103482</v>
       </c>
       <c r="D24" s="2"/>
@@ -7027,7 +7477,7 @@
         <v>328</v>
       </c>
       <c r="C25" s="2" t="str">
-        <f>CONCATENATE(G25,H25)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP103486</v>
       </c>
       <c r="D25" s="2"/>
@@ -7048,7 +7498,7 @@
         <v>328</v>
       </c>
       <c r="C26" s="2" t="str">
-        <f>CONCATENATE(G26,H26)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP103488</v>
       </c>
       <c r="D26" s="2"/>
@@ -7069,7 +7519,7 @@
         <v>328</v>
       </c>
       <c r="C27" s="2" t="str">
-        <f>CONCATENATE(G27,H27)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP103882</v>
       </c>
       <c r="D27" s="2"/>
@@ -7090,7 +7540,7 @@
         <v>328</v>
       </c>
       <c r="C28" s="2" t="str">
-        <f>CONCATENATE(G28,H28)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP103887</v>
       </c>
       <c r="D28" s="2"/>
@@ -7111,7 +7561,7 @@
         <v>328</v>
       </c>
       <c r="C29" s="2" t="str">
-        <f>CONCATENATE(G29,H29)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP103892</v>
       </c>
       <c r="D29" s="2"/>
@@ -7132,7 +7582,7 @@
         <v>328</v>
       </c>
       <c r="C30" s="2" t="str">
-        <f>CONCATENATE(G30,H30)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP104242</v>
       </c>
       <c r="D30" s="2"/>
@@ -7153,7 +7603,7 @@
         <v>328</v>
       </c>
       <c r="C31" s="2" t="str">
-        <f>CONCATENATE(G31,H31)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP104248</v>
       </c>
       <c r="D31" s="2"/>
@@ -7174,7 +7624,7 @@
         <v>328</v>
       </c>
       <c r="C32" s="2" t="str">
-        <f>CONCATENATE(G32,H32)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP104253</v>
       </c>
       <c r="D32" s="2"/>
@@ -7195,7 +7645,7 @@
         <v>328</v>
       </c>
       <c r="C33" s="2" t="str">
-        <f>CONCATENATE(G33,H33)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP104254</v>
       </c>
       <c r="D33" s="2"/>
@@ -7216,7 +7666,7 @@
         <v>328</v>
       </c>
       <c r="C34" s="2" t="str">
-        <f>CONCATENATE(G34,H34)</f>
+        <f t="shared" si="0"/>
         <v>11V1DP104256</v>
       </c>
       <c r="D34" s="2"/>
@@ -7257,7 +7707,7 @@
         <v>328</v>
       </c>
       <c r="C36" s="2" t="str">
-        <f>CONCATENATE(G36,H36)</f>
+        <f t="shared" ref="C36:C52" si="1">CONCATENATE(G36,H36)</f>
         <v>11V1DP104257</v>
       </c>
       <c r="D36" s="2"/>
@@ -7278,7 +7728,7 @@
         <v>328</v>
       </c>
       <c r="C37" s="2" t="str">
-        <f>CONCATENATE(G37,H37)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104259</v>
       </c>
       <c r="D37" s="2"/>
@@ -7299,7 +7749,7 @@
         <v>328</v>
       </c>
       <c r="C38" s="2" t="str">
-        <f>CONCATENATE(G38,H38)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104448</v>
       </c>
       <c r="D38" s="2"/>
@@ -7320,7 +7770,7 @@
         <v>328</v>
       </c>
       <c r="C39" s="2" t="str">
-        <f>CONCATENATE(G39,H39)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104459</v>
       </c>
       <c r="D39" s="2"/>
@@ -7341,7 +7791,7 @@
         <v>328</v>
       </c>
       <c r="C40" s="2" t="str">
-        <f>CONCATENATE(G40,H40)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104484</v>
       </c>
       <c r="D40" s="2"/>
@@ -7362,7 +7812,7 @@
         <v>328</v>
       </c>
       <c r="C41" s="2" t="str">
-        <f>CONCATENATE(G41,H41)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104486</v>
       </c>
       <c r="D41" s="2"/>
@@ -7383,7 +7833,7 @@
         <v>328</v>
       </c>
       <c r="C42" s="2" t="str">
-        <f>CONCATENATE(G42,H42)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104487</v>
       </c>
       <c r="D42" s="2"/>
@@ -7404,7 +7854,7 @@
         <v>328</v>
       </c>
       <c r="C43" s="2" t="str">
-        <f>CONCATENATE(G43,H43)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104488</v>
       </c>
       <c r="D43" s="2"/>
@@ -7425,7 +7875,7 @@
         <v>328</v>
       </c>
       <c r="C44" s="2" t="str">
-        <f>CONCATENATE(G44,H44)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104490</v>
       </c>
       <c r="D44" s="2"/>
@@ -7446,7 +7896,7 @@
         <v>328</v>
       </c>
       <c r="C45" s="2" t="str">
-        <f>CONCATENATE(G45,H45)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104492</v>
       </c>
       <c r="D45" s="2"/>
@@ -7467,7 +7917,7 @@
         <v>328</v>
       </c>
       <c r="C46" s="2" t="str">
-        <f>CONCATENATE(G46,H46)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104493</v>
       </c>
       <c r="D46" s="2"/>
@@ -7488,7 +7938,7 @@
         <v>328</v>
       </c>
       <c r="C47" s="2" t="str">
-        <f>CONCATENATE(G47,H47)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104494</v>
       </c>
       <c r="D47" s="2"/>
@@ -7509,7 +7959,7 @@
         <v>328</v>
       </c>
       <c r="C48" s="2" t="str">
-        <f>CONCATENATE(G48,H48)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104495</v>
       </c>
       <c r="D48" s="2"/>
@@ -7530,7 +7980,7 @@
         <v>328</v>
       </c>
       <c r="C49" s="2" t="str">
-        <f>CONCATENATE(G49,H49)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104496</v>
       </c>
       <c r="D49" s="2"/>
@@ -7551,7 +8001,7 @@
         <v>328</v>
       </c>
       <c r="C50" s="2" t="str">
-        <f>CONCATENATE(G50,H50)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104498</v>
       </c>
       <c r="D50" s="2"/>
@@ -7572,7 +8022,7 @@
         <v>328</v>
       </c>
       <c r="C51" s="2" t="str">
-        <f>CONCATENATE(G51,H51)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104499</v>
       </c>
       <c r="D51" s="2"/>
@@ -7593,7 +8043,7 @@
         <v>328</v>
       </c>
       <c r="C52" s="2" t="str">
-        <f>CONCATENATE(G52,H52)</f>
+        <f t="shared" si="1"/>
         <v>11V1DP104500</v>
       </c>
       <c r="D52" s="2"/>
